--- a/Priority Countries 2.xlsx
+++ b/Priority Countries 2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlbkm\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5328BEC-4314-4DEF-9147-5095DE278A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="11490" yWindow="4480" windowWidth="28800" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="346">
   <si>
     <t>Program</t>
   </si>
@@ -1054,22 +1063,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Aptos Narrow&quot;"/>
     </font>
@@ -1079,39 +1088,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1301,20 +1315,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E315"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1348,7 +1367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1399,7 +1418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1433,7 +1452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1450,7 +1469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1467,7 +1486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1501,7 +1520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1535,7 +1554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +1571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1586,7 +1605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1603,7 +1622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1671,7 +1690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1705,7 +1724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -1739,7 +1758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>40</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -1790,7 +1809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1807,7 +1826,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>40</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1858,7 +1877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>40</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1909,7 +1928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="14">
       <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
@@ -1926,7 +1945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="14">
       <c r="A37" s="2" t="s">
         <v>40</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="14">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1960,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="14">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
@@ -1977,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="14">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1994,7 +2013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="14">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
@@ -2011,7 +2030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" ht="14">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -2028,7 +2047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="14">
       <c r="A43" s="2" t="s">
         <v>104</v>
       </c>
@@ -2045,7 +2064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="14">
       <c r="A44" s="2" t="s">
         <v>104</v>
       </c>
@@ -2062,7 +2081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="14">
       <c r="A45" s="2" t="s">
         <v>104</v>
       </c>
@@ -2079,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="14">
       <c r="A46" s="2" t="s">
         <v>104</v>
       </c>
@@ -2096,7 +2115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" ht="14">
       <c r="A47" s="2" t="s">
         <v>104</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" ht="14">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -2130,7 +2149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" ht="14">
       <c r="A49" s="2" t="s">
         <v>104</v>
       </c>
@@ -2147,7 +2166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" ht="14">
       <c r="A50" s="2" t="s">
         <v>104</v>
       </c>
@@ -2164,7 +2183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" ht="14">
       <c r="A51" s="2" t="s">
         <v>104</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" ht="14">
       <c r="A52" s="2" t="s">
         <v>104</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" ht="14">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -2215,7 +2234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" ht="14">
       <c r="A54" s="2" t="s">
         <v>104</v>
       </c>
@@ -2232,7 +2251,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" ht="14">
       <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
@@ -2249,7 +2268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" ht="14">
       <c r="A56" s="2" t="s">
         <v>104</v>
       </c>
@@ -2266,7 +2285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" ht="14">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -2283,7 +2302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" ht="14">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -2300,7 +2319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" ht="14">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -2317,7 +2336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" ht="14">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -2334,7 +2353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" ht="14">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -2351,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" ht="14">
       <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
@@ -2368,7 +2387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" ht="14">
       <c r="A63" s="2" t="s">
         <v>104</v>
       </c>
@@ -2385,7 +2404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" ht="14">
       <c r="A64" s="2" t="s">
         <v>132</v>
       </c>
@@ -2402,7 +2421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" ht="14">
       <c r="A65" s="2" t="s">
         <v>132</v>
       </c>
@@ -2419,7 +2438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" ht="14">
       <c r="A66" s="2" t="s">
         <v>132</v>
       </c>
@@ -2436,7 +2455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" ht="14">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -2453,7 +2472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" ht="14">
       <c r="A68" s="2" t="s">
         <v>132</v>
       </c>
@@ -2470,7 +2489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" ht="14">
       <c r="A69" s="2" t="s">
         <v>132</v>
       </c>
@@ -2487,7 +2506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" ht="14">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -2504,7 +2523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" ht="14">
       <c r="A71" s="2" t="s">
         <v>132</v>
       </c>
@@ -2521,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" ht="14">
       <c r="A72" s="2" t="s">
         <v>132</v>
       </c>
@@ -2538,7 +2557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" ht="14">
       <c r="A73" s="2" t="s">
         <v>132</v>
       </c>
@@ -2555,7 +2574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" ht="14">
       <c r="A74" s="2" t="s">
         <v>132</v>
       </c>
@@ -2572,7 +2591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" ht="14">
       <c r="A75" s="2" t="s">
         <v>132</v>
       </c>
@@ -2589,7 +2608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" ht="14">
       <c r="A76" s="2" t="s">
         <v>132</v>
       </c>
@@ -2606,7 +2625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" ht="14">
       <c r="A77" s="2" t="s">
         <v>132</v>
       </c>
@@ -2623,7 +2642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" ht="14">
       <c r="A78" s="2" t="s">
         <v>132</v>
       </c>
@@ -2640,7 +2659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" ht="14">
       <c r="A79" s="2" t="s">
         <v>132</v>
       </c>
@@ -2657,7 +2676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" ht="14">
       <c r="A80" s="2" t="s">
         <v>132</v>
       </c>
@@ -2674,7 +2693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" ht="14">
       <c r="A81" s="2" t="s">
         <v>132</v>
       </c>
@@ -2691,7 +2710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" ht="14">
       <c r="A82" s="2" t="s">
         <v>132</v>
       </c>
@@ -2708,7 +2727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" ht="14">
       <c r="A83" s="2" t="s">
         <v>132</v>
       </c>
@@ -2725,7 +2744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" ht="14">
       <c r="A84" s="2" t="s">
         <v>132</v>
       </c>
@@ -2742,7 +2761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" ht="14">
       <c r="A85" s="2" t="s">
         <v>132</v>
       </c>
@@ -2759,7 +2778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" ht="14">
       <c r="A86" s="2" t="s">
         <v>132</v>
       </c>
@@ -2776,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" ht="14">
       <c r="A87" s="2" t="s">
         <v>132</v>
       </c>
@@ -2793,7 +2812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" ht="14">
       <c r="A88" s="2" t="s">
         <v>132</v>
       </c>
@@ -2810,7 +2829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" ht="14">
       <c r="A89" s="2" t="s">
         <v>132</v>
       </c>
@@ -2827,7 +2846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" ht="14">
       <c r="A90" s="2" t="s">
         <v>132</v>
       </c>
@@ -2844,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" ht="14">
       <c r="A91" s="2" t="s">
         <v>132</v>
       </c>
@@ -2861,7 +2880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" ht="14">
       <c r="A92" s="2" t="s">
         <v>132</v>
       </c>
@@ -2878,7 +2897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" ht="14">
       <c r="A93" s="2" t="s">
         <v>132</v>
       </c>
@@ -2895,7 +2914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" ht="14">
       <c r="A94" s="2" t="s">
         <v>132</v>
       </c>
@@ -2912,7 +2931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" ht="14">
       <c r="A95" s="2" t="s">
         <v>132</v>
       </c>
@@ -2929,7 +2948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" ht="14">
       <c r="A96" s="2" t="s">
         <v>132</v>
       </c>
@@ -2946,7 +2965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" ht="14">
       <c r="A97" s="2" t="s">
         <v>132</v>
       </c>
@@ -2963,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" ht="14">
       <c r="A98" s="2" t="s">
         <v>132</v>
       </c>
@@ -2980,7 +2999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" ht="14">
       <c r="A99" s="2" t="s">
         <v>132</v>
       </c>
@@ -2997,7 +3016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" ht="14">
       <c r="A100" s="2" t="s">
         <v>132</v>
       </c>
@@ -3014,7 +3033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" ht="14">
       <c r="A101" s="2" t="s">
         <v>132</v>
       </c>
@@ -3031,7 +3050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" ht="14">
       <c r="A102" s="2" t="s">
         <v>132</v>
       </c>
@@ -3048,7 +3067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" ht="14">
       <c r="A103" s="2" t="s">
         <v>132</v>
       </c>
@@ -3065,7 +3084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" ht="14">
       <c r="A104" s="2" t="s">
         <v>132</v>
       </c>
@@ -3082,7 +3101,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" ht="14">
       <c r="A105" s="2" t="s">
         <v>132</v>
       </c>
@@ -3099,7 +3118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" ht="14">
       <c r="A106" s="2" t="s">
         <v>132</v>
       </c>
@@ -3116,7 +3135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" ht="14">
       <c r="A107" s="2" t="s">
         <v>132</v>
       </c>
@@ -3133,7 +3152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" ht="14">
       <c r="A108" s="2" t="s">
         <v>178</v>
       </c>
@@ -3150,7 +3169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" ht="14">
       <c r="A109" s="2" t="s">
         <v>178</v>
       </c>
@@ -3167,7 +3186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" ht="14">
       <c r="A110" s="2" t="s">
         <v>178</v>
       </c>
@@ -3184,7 +3203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" ht="14">
       <c r="A111" s="2" t="s">
         <v>178</v>
       </c>
@@ -3201,7 +3220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" ht="14">
       <c r="A112" s="2" t="s">
         <v>178</v>
       </c>
@@ -3218,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" ht="14">
       <c r="A113" s="2" t="s">
         <v>178</v>
       </c>
@@ -3235,7 +3254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" ht="14">
       <c r="A114" s="2" t="s">
         <v>178</v>
       </c>
@@ -3252,7 +3271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" ht="14">
       <c r="A115" s="2" t="s">
         <v>178</v>
       </c>
@@ -3269,7 +3288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" ht="14">
       <c r="A116" s="2" t="s">
         <v>178</v>
       </c>
@@ -3286,7 +3305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" ht="14">
       <c r="A117" s="2" t="s">
         <v>178</v>
       </c>
@@ -3303,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" ht="14">
       <c r="A118" s="2" t="s">
         <v>178</v>
       </c>
@@ -3320,7 +3339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" ht="14">
       <c r="A119" s="2" t="s">
         <v>178</v>
       </c>
@@ -3337,7 +3356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" ht="14">
       <c r="A120" s="2" t="s">
         <v>178</v>
       </c>
@@ -3354,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" ht="14">
       <c r="A121" s="2" t="s">
         <v>178</v>
       </c>
@@ -3371,7 +3390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" ht="14">
       <c r="A122" s="2" t="s">
         <v>178</v>
       </c>
@@ -3388,7 +3407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" ht="14">
       <c r="A123" s="2" t="s">
         <v>182</v>
       </c>
@@ -3405,7 +3424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" ht="14">
       <c r="A124" s="2" t="s">
         <v>182</v>
       </c>
@@ -3422,7 +3441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" ht="14">
       <c r="A125" s="2" t="s">
         <v>182</v>
       </c>
@@ -3439,7 +3458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" ht="14">
       <c r="A126" s="2" t="s">
         <v>182</v>
       </c>
@@ -3456,7 +3475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" ht="14">
       <c r="A127" s="2" t="s">
         <v>182</v>
       </c>
@@ -3473,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" ht="14">
       <c r="A128" s="2" t="s">
         <v>182</v>
       </c>
@@ -3490,7 +3509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" ht="14">
       <c r="A129" s="2" t="s">
         <v>182</v>
       </c>
@@ -3507,7 +3526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" ht="14">
       <c r="A130" s="2" t="s">
         <v>182</v>
       </c>
@@ -3524,7 +3543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" ht="14">
       <c r="A131" s="2" t="s">
         <v>182</v>
       </c>
@@ -3541,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" ht="14">
       <c r="A132" s="2" t="s">
         <v>182</v>
       </c>
@@ -3558,7 +3577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" ht="14">
       <c r="A133" s="2" t="s">
         <v>182</v>
       </c>
@@ -3575,7 +3594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" ht="14">
       <c r="A134" s="2" t="s">
         <v>182</v>
       </c>
@@ -3592,7 +3611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" ht="14">
       <c r="A135" s="2" t="s">
         <v>182</v>
       </c>
@@ -3609,7 +3628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" ht="14">
       <c r="A136" s="2" t="s">
         <v>182</v>
       </c>
@@ -3626,7 +3645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" ht="14">
       <c r="A137" s="2" t="s">
         <v>182</v>
       </c>
@@ -3643,7 +3662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" ht="14">
       <c r="A138" s="2" t="s">
         <v>182</v>
       </c>
@@ -3660,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" ht="14">
       <c r="A139" s="2" t="s">
         <v>182</v>
       </c>
@@ -3677,213 +3696,213 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" ht="14">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" ht="14">
       <c r="A141" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" ht="14">
       <c r="A142" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" ht="14">
       <c r="A143" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="14">
+      <c r="A144" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="14">
+      <c r="A145" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="14">
+      <c r="A146" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="14">
+      <c r="A147" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="14">
+      <c r="A148" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="14">
+      <c r="A149" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="14">
+      <c r="A150" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14">
+      <c r="A151" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E151" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" ht="14">
       <c r="A152" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>65</v>
@@ -3898,2523 +3917,2778 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" ht="14">
       <c r="A153" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" ht="14">
       <c r="A154" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" ht="14">
       <c r="A155" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" ht="14">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" ht="14">
       <c r="A157" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" ht="14">
       <c r="A158" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" ht="14">
       <c r="A159" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="14">
+      <c r="A160" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="14">
+      <c r="A161" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="14">
+      <c r="A162" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="14">
+      <c r="A163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14">
+      <c r="A164" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="14">
+      <c r="A165" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="14">
+      <c r="A166" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="14">
+      <c r="A167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="14">
+      <c r="A168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="14">
+      <c r="A169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="14">
+      <c r="A170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="14">
+      <c r="A171" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="14">
+      <c r="A172" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="14">
+      <c r="A173" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="14">
+      <c r="A174" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E174" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" ht="14">
       <c r="A175" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" ht="14">
       <c r="A176" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" ht="14">
       <c r="A177" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" ht="14">
       <c r="A178" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" ht="14">
       <c r="A179" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" ht="14">
       <c r="A180" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" ht="14">
       <c r="A181" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" ht="14">
       <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" ht="14">
       <c r="A183" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" ht="14">
       <c r="A184" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>172</v>
+        <v>10</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" ht="14">
       <c r="A185" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" ht="14">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" ht="14">
       <c r="A187" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" ht="14">
       <c r="A188" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" ht="14">
       <c r="A189" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:5" ht="14">
       <c r="A190" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:5" ht="14">
       <c r="A191" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:5" ht="14">
       <c r="A192" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:5" ht="14">
       <c r="A193" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="14">
+      <c r="A194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="14">
+      <c r="A195" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="14">
+      <c r="A196" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="14">
+      <c r="A197" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="14">
+      <c r="A198" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="14">
+      <c r="A199" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="14">
+      <c r="A200" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="14">
+      <c r="A201" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="14">
+      <c r="A202" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="14">
+      <c r="A203" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="14">
+      <c r="A204" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="14">
+      <c r="A205" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="14">
+      <c r="A206" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="14">
+      <c r="A207" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="14">
+      <c r="A208" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B194" s="2" t="s">
+      <c r="E208" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="14">
+      <c r="A209" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D209" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B195" s="2" t="s">
+      <c r="E209" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="14">
+      <c r="A210" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D210" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B196" s="2" t="s">
+      <c r="E210" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="14">
+      <c r="A211" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D211" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B197" s="2" t="s">
+      <c r="E211" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="14">
+      <c r="A212" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D212" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B198" s="2" t="s">
+      <c r="E212" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="14">
+      <c r="A213" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D213" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B199" s="2" t="s">
+      <c r="E213" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="14">
+      <c r="A214" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B200" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="14">
+      <c r="A215" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B201" s="2" t="s">
+      <c r="E215" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="14">
+      <c r="A216" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D216" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B202" s="2" t="s">
+      <c r="E216" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="14">
+      <c r="A217" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B203" s="2" t="s">
+      <c r="E217" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="14">
+      <c r="A218" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B204" s="2" t="s">
+      <c r="E218" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="14">
+      <c r="A219" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B205" s="2" t="s">
+      <c r="E219" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="14">
+      <c r="A220" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D220" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B206" s="2" t="s">
+      <c r="E220" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="14">
+      <c r="A221" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D221" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B207" s="2" t="s">
+      <c r="E221" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="14">
+      <c r="A222" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D222" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B208" s="2" t="s">
+      <c r="E222" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="14">
+      <c r="A223" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B209" s="2" t="s">
+      <c r="E223" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="14">
+      <c r="A224" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D224" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B210" s="2" t="s">
+      <c r="E224" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="14">
+      <c r="A225" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D225" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B211" s="2" t="s">
+      <c r="E225" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="14">
+      <c r="A226" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D226" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B212" s="2" t="s">
+      <c r="E226" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="14">
+      <c r="A227" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B213" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="14">
+      <c r="A228" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D228" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B214" s="2" t="s">
+      <c r="E228" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="14">
+      <c r="A229" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D229" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B215" s="2" t="s">
+      <c r="E229" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="14">
+      <c r="A230" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B216" s="2" t="s">
+      <c r="E230" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="14">
+      <c r="A231" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B217" s="2" t="s">
+      <c r="E231" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="14">
+      <c r="A232" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D232" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B218" s="2" t="s">
+      <c r="E232" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="14">
+      <c r="A233" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D233" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B219" s="2" t="s">
+      <c r="E233" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="14">
+      <c r="A234" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C234" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D234" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B220" s="2" t="s">
+      <c r="E234" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="14">
+      <c r="A235" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B221" s="2" t="s">
+      <c r="E235" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="14">
+      <c r="A236" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D236" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B222" s="2" t="s">
+      <c r="E236" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="14">
+      <c r="A237" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D237" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B223" s="2" t="s">
+      <c r="E237" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="14">
+      <c r="A238" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D238" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B224" s="2" t="s">
+      <c r="E238" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="14">
+      <c r="A239" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B225" s="2" t="s">
+      <c r="E239" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="14">
+      <c r="A240" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D240" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B226" s="2" t="s">
+      <c r="E240" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="14">
+      <c r="A241" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D241" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B227" s="2" t="s">
+      <c r="E241" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="14">
+      <c r="A242" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D242" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B228" s="2" t="s">
+      <c r="E242" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="14">
+      <c r="A243" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D243" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B229" s="2" t="s">
+      <c r="E243" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="14">
+      <c r="A244" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B230" s="2" t="s">
+      <c r="E244" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="14">
+      <c r="A245" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D245" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B231" s="2" t="s">
+      <c r="E245" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="14">
+      <c r="A246" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B232" s="2" t="s">
+      <c r="E246" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="14">
+      <c r="A247" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B233" s="2" t="s">
+      <c r="E247" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="14">
+      <c r="A248" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D248" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B234" s="2" t="s">
+      <c r="E248" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="14">
+      <c r="A249" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D249" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B235" s="2" t="s">
+      <c r="E249" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="14">
+      <c r="A250" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D250" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B236" s="2" t="s">
+      <c r="E250" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="14">
+      <c r="A251" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B237" s="2" t="s">
+      <c r="E251" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="14">
+      <c r="A252" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D252" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B238" s="2" t="s">
+      <c r="E252" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="14">
+      <c r="A253" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D253" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B239" s="2" t="s">
+      <c r="E253" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="14">
+      <c r="A254" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B240" s="2" t="s">
+      <c r="E254" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="14">
+      <c r="A255" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D255" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B241" s="2" t="s">
+      <c r="E255" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="14">
+      <c r="A256" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D256" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B242" s="2" t="s">
+      <c r="E256" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14">
+      <c r="A257" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D257" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B243" s="2" t="s">
+      <c r="E257" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="14">
+      <c r="A258" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D258" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B244" s="2" t="s">
+      <c r="E258" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14">
+      <c r="A259" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D259" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B245" s="2" t="s">
+      <c r="E259" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14">
+      <c r="A260" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D260" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B246" s="2" t="s">
+      <c r="E260" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14">
+      <c r="A261" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D261" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E246" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B247" s="2" t="s">
+      <c r="E261" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="14">
+      <c r="A262" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D262" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B248" s="2" t="s">
+      <c r="E262" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14">
+      <c r="A263" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D263" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B249" s="2" t="s">
+      <c r="E263" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14">
+      <c r="A264" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D264" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B250" s="2" t="s">
+      <c r="E264" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14">
+      <c r="A265" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D265" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B251" s="2" t="s">
+      <c r="E265" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14">
+      <c r="A266" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D266" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B252" s="2" t="s">
+      <c r="E266" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="14">
+      <c r="A267" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D267" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B253" s="2" t="s">
+      <c r="E267" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="14">
+      <c r="A268" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D268" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B254" s="2" t="s">
+      <c r="E268" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="14">
+      <c r="A269" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C269" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D269" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B255" s="2" t="s">
+      <c r="E269" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="14">
+      <c r="A270" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C270" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D270" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E255" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B256" s="2" t="s">
+      <c r="E270" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="14">
+      <c r="A271" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D271" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B257" s="2" t="s">
+      <c r="E271" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="14">
+      <c r="A272" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D272" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B258" s="2" t="s">
+      <c r="E272" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="14">
+      <c r="A273" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D273" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B259" s="2" t="s">
+      <c r="E273" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="14">
+      <c r="A274" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D274" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B260" s="2" t="s">
+      <c r="E274" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="14">
+      <c r="A275" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D275" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B261" s="2" t="s">
+      <c r="E275" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="14">
+      <c r="A276" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C276" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D276" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B262" s="2" t="s">
+      <c r="E276" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="14">
+      <c r="A277" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C277" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D277" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B263" s="2" t="s">
+      <c r="E277" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="14">
+      <c r="A278" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C278" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D278" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E263" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B264" s="2" t="s">
+      <c r="E278" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="14">
+      <c r="A279" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C279" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D279" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B265" s="2" t="s">
+      <c r="E279" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="14">
+      <c r="A280" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D280" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B266" s="2" t="s">
+      <c r="E280" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="14">
+      <c r="A281" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C281" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D281" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B267" s="2" t="s">
+      <c r="E281" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="14">
+      <c r="A282" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C282" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D282" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B268" s="2" t="s">
+      <c r="E282" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="14">
+      <c r="A283" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C283" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D283" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B269" s="2" t="s">
+      <c r="E283" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="14">
+      <c r="A284" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C284" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D284" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B270" s="2" t="s">
+      <c r="E284" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="14">
+      <c r="A285" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C285" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D285" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B271" s="2" t="s">
+      <c r="E285" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14">
+      <c r="A286" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D286" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E271" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B272" s="2" t="s">
+      <c r="E286" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="14">
+      <c r="A287" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C287" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D287" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B273" s="2" t="s">
+      <c r="E287" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="14">
+      <c r="A288" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D288" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E273" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B274" s="2" t="s">
+      <c r="E288" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14">
+      <c r="A289" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C289" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D289" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B275" s="2" t="s">
+      <c r="E289" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14">
+      <c r="A290" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C290" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D290" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B276" s="2" t="s">
+      <c r="E290" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="14">
+      <c r="A291" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C291" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D291" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B277" s="2" t="s">
+      <c r="E291" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="14">
+      <c r="A292" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C292" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D292" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B278" s="2" t="s">
+      <c r="E292" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="14">
+      <c r="A293" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C293" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D293" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E278" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B279" s="2" t="s">
+      <c r="E293" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="14">
+      <c r="A294" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C294" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D294" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B280" s="2" t="s">
+      <c r="E294" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="14">
+      <c r="A295" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C295" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D295" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E280" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B281" s="2" t="s">
+      <c r="E295" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="14">
+      <c r="A296" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C296" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D296" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B282" s="2" t="s">
+      <c r="E296" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="14">
+      <c r="A297" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C297" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D297" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B283" s="2" t="s">
+      <c r="E297" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14">
+      <c r="A298" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D298" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B284" s="2" t="s">
+      <c r="E298" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14">
+      <c r="A299" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C299" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D299" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B285" s="2" t="s">
+      <c r="E299" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="14">
+      <c r="A300" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C300" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D300" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B286" s="2" t="s">
+      <c r="E300" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14">
+      <c r="A301" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D301" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B287" s="2" t="s">
+      <c r="E301" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="14">
+      <c r="A302" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C302" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D302" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E287" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B288" s="2" t="s">
+      <c r="E302" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="14">
+      <c r="A303" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C303" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D303" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E288" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B289" s="2" t="s">
+      <c r="E303" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="14">
+      <c r="A304" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C304" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D304" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B290" s="2" t="s">
+      <c r="E304" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="14">
+      <c r="A305" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D305" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E290" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B291" s="2" t="s">
+      <c r="E305" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="14">
+      <c r="A306" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C306" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D306" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E291" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B292" s="2" t="s">
+      <c r="E306" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="14">
+      <c r="A307" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C307" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D307" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B293" s="2" t="s">
+      <c r="E307" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="14">
+      <c r="A308" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C308" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D308" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E293" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B294" s="2" t="s">
+      <c r="E308" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="14">
+      <c r="A309" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C309" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D309" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E294" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B295" s="2" t="s">
+      <c r="E309" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="14">
+      <c r="A310" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C310" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D310" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E295" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B296" s="2" t="s">
+      <c r="E310" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="14">
+      <c r="A311" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C311" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D311" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E296" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B297" s="2" t="s">
+      <c r="E311" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="14">
+      <c r="A312" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C312" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D312" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E297" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B298" s="2" t="s">
+      <c r="E312" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="14">
+      <c r="A313" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C313" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D298" s="2" t="s">
+      <c r="D313" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B299" s="2" t="s">
+      <c r="E313" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="14">
+      <c r="A314" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D299" s="2" t="s">
+      <c r="D314" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E299" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B300" s="2" t="s">
+      <c r="E314" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="14">
+      <c r="A315" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C315" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D300" s="2" t="s">
+      <c r="D315" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E300" s="2" t="s">
+      <c r="E315" s="2" t="s">
         <v>189</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>